--- a/medicine/Mort/Cimetière_militaire_français_à_l'étranger/Cimetière_militaire_français_à_l'étranger.xlsx
+++ b/medicine/Mort/Cimetière_militaire_français_à_l'étranger/Cimetière_militaire_français_à_l'étranger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La France possède environ 1000 cimetières et carrés militaire à l'étranger répartis dans 80 pays différents où sont inhumé 230.000 soldats[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La France possède environ 1000 cimetières et carrés militaire à l'étranger répartis dans 80 pays différents où sont inhumé 230.000 soldats.
 Ces cimetières, ossuaires, columbariums ou carrés militaires rassemblent les dépouilles des soldats français ou ayant combattu pour la France. La plupart contient les soldats morts pour la France lors de la Première guerre mondiale et de la Deuxième Guerre mondiale.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Albanie
-Allemagne
-Tombe au cimetière communal de Barleben: 10 corps
+          <t>Allemagne</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tombe au cimetière communal de Barleben: 10 corps
 Tombes des travailleurs forcés au Fiedhof St Hedwig de Berlin
 Franzosenfriedhof (Coblence): 312 soldats français de 1870/1871
 Franzosenfriedhof (Nordhorn): 7 soldats français de 1870/1871
@@ -524,11 +540,79 @@
 Carré militaire de Landau: 82 corps de 1870/1871 et 1 de 14-18
 Tombe collective au Burgthorfriedhof de Lübeck: 6 corps
 Carré militaire du Jardin Franco-Allemand de Saarbrücken: ~50 de 1870/1871
-Spire: carré militaire français
-Autriche
-Carré militaire de Vienne: 105 corps de la Seconde Guerre Mondiale ainsi que 54 corps du 1er Empire en ossuaire
-Belgique
-Cimetière français de La Belle-Motte: 4.057 corps de 14-18
+Spire: carré militaire français</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autriche</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Carré militaire de Vienne: 105 corps de la Seconde Guerre Mondiale ainsi que 54 corps du 1er Empire en ossuaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cimetière français de La Belle-Motte: 4.057 corps de 14-18
 Cimetière franco-allemand d'Anloy: 593 corps de 14-18
 Carré militaire d'Antwerpen-Wilrijk: 42 corps
 Carré militaire d'Arlon: 23 corps de soldats français et 28 autres (évacués, fusillés, inconnus, étrangers)
@@ -576,231 +660,1092 @@
 Carré militaire de Westvleteren: 191 corps
 Carré militaire de Woesten: 284 corps
 Nécropole nationale française de Saint Charles de Potyze: 4209 soldats sur 3547 tombes et un ossuaire.
-Cimetière militaire de Zulte: 749 corps
-Bulgarie
-Cimetière militaire français de Sofia: 789 corps[2]
-Grèce
-Hongrie
-Cimetière militaire français de Budapest: 210 tombes individuelles d'Alsaciens-Lorrains.
-Cimetière militaire de Solymár: 1 tombe française (Marcel Tilmont)
-Italie
-Lituanie
-Luxembourg
-Carré militaire du cimetière communal de Dudelange: 21 tombes [3]
-Mausolée des soldats français du cimetière de Notre-Dame: 56 soldats [4]
-Macédoine
-Malte
-Cent six militaires français, tués pendant la Première Guerre Mondiale reposent dans les cimetières de Malte.[5]
+Cimetière militaire de Zulte: 749 corps</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bulgarie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cimetière militaire français de Sofia: 789 corps</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hongrie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cimetière militaire français de Budapest: 210 tombes individuelles d'Alsaciens-Lorrains.
+Cimetière militaire de Solymár: 1 tombe française (Marcel Tilmont)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carré militaire du cimetière communal de Dudelange: 21 tombes 
+Mausolée des soldats français du cimetière de Notre-Dame: 56 soldats </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cent six militaires français, tués pendant la Première Guerre Mondiale reposent dans les cimetières de Malte.
 - 43 soldats sont enterrés au Cimetière de Bighi, dit des Capucins, 
 - 31 soldats sont enterrés au Cimetière de l’Adolorata à Paola, 
 - 13 soldats au Cimetière musulman de Marsa dit « Turkish cemetry » 
 - 19 soldats au Cimetière de Ta’Braxia
-Norvège
-Pays-Bas
-Pologne
-République Tchèque
-Rotonde du cimetière de Bystrany: 22 soldats morts en captivité pendant 39-45[6]
-Roumanie[7]
-Carré militaire du Cimetière Bellu de Bucarest:  136 tombes individuelles de 14-18
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>République Tchèque</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Rotonde du cimetière de Bystrany: 22 soldats morts en captivité pendant 39-45</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Roumanie[7]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Carré militaire du Cimetière Bellu de Bucarest:  136 tombes individuelles de 14-18
 Carré militaire du cimetière "Eternitatea" d’Alexandria: 42 tombes de 14-18
 Carré français de la parcelle militaire de Timisoara: 24 tombes
-Carré militaire français de Slobozia: 215 tombes (ou 313[8])
+Carré militaire français de Slobozia: 215 tombes (ou 313)
 Caveau militaire français de Iași: 48 niches
 Carré militaire français de Contanța: 38 tombes de la Guerre de Crimée
-Carré militaire français de Galați: 51 tombes
-Royaume-Uni
-Russie
-Cimetière militaire de Viazma : 122 soldats de la grande armée
-Serbie
-Cimetière militaire français de Belgrade: 290 tombes + deux ossuaires de 49 et 46 soldats [9]
-Cimetière militaire de Zajecar: 85 tombes[10]
-Ukraine</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Carré militaire français de Galați: 51 tombes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Russie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Cimetière militaire de Viazma : 122 soldats de la grande armée</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Serbie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Cimetière militaire français de Belgrade: 290 tombes + deux ossuaires de 49 et 46 soldats 
+Cimetière militaire de Zajecar: 85 tombes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Afrique du Nord et Moyen-Orient</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Algérie
-Carré militaire du cimetière européen de Koléa: + de 100 sépultures 14-18 et 39-45.[11]
-Cimetière marin de Mers-el-Kébir: 1297 corps en tombes et ossuaire[12]
-Nécropole nationale française du Petit Lac: 16 790 corps
-Tunisie
-Cimetière militaire de Takrouna: 235 tombes de militaires français
-Cimetière militaire de Gammarth: 4 289 dont 1871 tombes individuelles, 1220 en ossuaire, 1098 en colombarium. [13]
-Maroc
-Libye
-Cimetière militaire français de Tobrouk: ~194 tombes (182 tombes de Bir Hakeim, 8 des combats de Koufra et 4 tués en janvier 1941).
-Égypte
-Cimetière Latin de Terre Sainte d'Alexandrie: + de 92 soldats français[14]
-Liban
-Cimetière militaire de Rayak: 113 tombes [15]
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Algérie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Carré militaire du cimetière européen de Koléa: + de 100 sépultures 14-18 et 39-45.
+Cimetière marin de Mers-el-Kébir: 1297 corps en tombes et ossuaire
+Nécropole nationale française du Petit Lac: 16 790 corps</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Afrique du Nord et Moyen-Orient</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cimetière militaire de Takrouna: 235 tombes de militaires français
+Cimetière militaire de Gammarth: 4 289 dont 1871 tombes individuelles, 1220 en ossuaire, 1098 en colombarium. </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Afrique du Nord et Moyen-Orient</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Libye</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Cimetière militaire français de Tobrouk: ~194 tombes (182 tombes de Bir Hakeim, 8 des combats de Koufra et 4 tués en janvier 1941).</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Afrique du Nord et Moyen-Orient</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Égypte</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Cimetière Latin de Terre Sainte d'Alexandrie: + de 92 soldats français</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Afrique du Nord et Moyen-Orient</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Liban</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Cimetière militaire de Rayak: 113 tombes 
 Cimetière militaire de Tripoli: 356 connus + ? inconnus.
-Carré mortuaire « d'un cimetière chrétien de Beyrouth »: ~1000 soldats de la Seconde guerre mondiale.[16]
-Turquie
-Cimetière militaire d'Alexandrette: 822 corps
-Cimetière militaire français d'Istanbul: 251 corps[17]
-Nécropole de Seddul-Bahr: un ossuaire (12.000 corps) et en tombes individuelles pour les 2.235 corps identifiés, morts lors de l'expédition des Dardanelles[18]
-Syrie
-Cimetière militaire de Dmeir: + de 4000 tombes</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Carré mortuaire « d'un cimetière chrétien de Beyrouth »: ~1000 soldats de la Seconde guerre mondiale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Afrique du Nord et Moyen-Orient</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Turquie</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Cimetière militaire d'Alexandrette: 822 corps
+Cimetière militaire français d'Istanbul: 251 corps
+Nécropole de Seddul-Bahr: un ossuaire (12.000 corps) et en tombes individuelles pour les 2.235 corps identifiés, morts lors de l'expédition des Dardanelles</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Afrique du Nord et Moyen-Orient</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Syrie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Cimetière militaire de Dmeir: + de 4000 tombes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Afrique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cameroun
-Cimetière militaire français d'Abong-Mbang: 122 tombes dont 9 identifiées[19]
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cameroun</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Cimetière militaire français d'Abong-Mbang: 122 tombes dont 9 identifiées
 Cimetière militaire français d'Edéa: 8 soldats
 Cimetière militaire français d'Eséka: 14 soldats
 Cimetière militaire français de Garoua: 14 soldats
 Cimetière militaire français de Maroua: 8 soldats
-Cimetière militaire du plateau Atemengue: 17 soldats coloniaux morts entre 1953 et 1960
-Guinée
-Cimetière militaire français de Niagassola: 24 tombes de 1882 à 1893
-Madagascar
-Cimetière militaire de Diégo-Suarez
+Cimetière militaire du plateau Atemengue: 17 soldats coloniaux morts entre 1953 et 1960</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Guinée</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Cimetière militaire français de Niagassola: 24 tombes de 1882 à 1893</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Madagascar</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Cimetière militaire de Diégo-Suarez
 Cimetière militaire du Cap Diégo
 Cimetière militaire d'Anjianema
 Cimetière militaire de Joffreville
-Cimetière militaire de Sakaramy
-Mali
-Cimetière militaire français de Kidal: 10 tombes[20]
-Cimetière militaire français de Tombouctou: 69 tombes[21]
-Mauritanie
-Cimetière militaire français d'Atar: 252 tombes, dont 176 soldats africains
-Sénégal
-Cimetière de Bel-Air: 1707 tombes
+Cimetière militaire de Sakaramy</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Mali</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cimetière militaire français de Kidal: 10 tombes
+Cimetière militaire français de Tombouctou: 69 tombes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Mauritanie</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Cimetière militaire français d'Atar: 252 tombes, dont 176 soldats africains</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sénégal</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Cimetière de Bel-Air: 1707 tombes
 Cimetière de Dakar: 2249 tombes
 Cimetière de Fatik: 3 tombes
 Cimetière de Koalack: 93 tombes
 Cimetière de Saint-Louis: 721 tombes
 Cimetière de Tambacounda: 111 tombes
 Cimetière de Thiès: 178 tombes
-Cimetière de Zinguinchor: 5 tombes
-Tchad
-Carré militaire de N'Djamena: 126 corps
-Cimetière militaire de Zouar: 30 corps
-Togo
-Cimetière militaire d'Atakpamé: 15 corps
+Cimetière de Zinguinchor: 5 tombes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tchad</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Carré militaire de N'Djamena: 126 corps
+Cimetière militaire de Zouar: 30 corps</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Togo</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Cimetière militaire d'Atakpamé: 15 corps
 Cimetière militaire de Wahala: 17 corps</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Asie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Japon
-Cimetière militaire français de Shuhogahara à Kobé: 40 français du corps expéditionnaire de 1864
-Cimetière militaire Mont d'Hijiyama: 7 soldats du Corps Expéditionnaire en Chine[22]
-Corée du Sud
-Cimetière militaire de Pusan: 44 soldats de la Guerre de Corée[23].
-Taiwan
-Cimetière militaire français de Keelung: 700 militaires de l'expédition de l'Amiral Courbet en 1884-1885
-Laos
-Cimetière militaire français de Vientiane: 310 tombes individuelles nommés + ~100 inconnus[24]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Japon</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Cimetière militaire français de Shuhogahara à Kobé: 40 français du corps expéditionnaire de 1864
+Cimetière militaire Mont d'Hijiyama: 7 soldats du Corps Expéditionnaire en Chine</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Corée du Sud</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Cimetière militaire de Pusan: 44 soldats de la Guerre de Corée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Cimetière militaire français de Keelung: 700 militaires de l'expédition de l'Amiral Courbet en 1884-1885</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Laos</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Cimetière militaire français de Vientiane: 310 tombes individuelles nommés + ~100 inconnus</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Amériques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>États-Unis
-Carré militaire du Cypress Hills National Cemetery: 21 corps[25].
-Mexique
-Carré militaire du cimetière français de Puebla: ~3000 soldats français et mexicains[26]</t>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Carré militaire du Cypress Hills National Cemetery: 21 corps.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_français_à_l'étranger</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_fran%C3%A7ais_%C3%A0_l%27%C3%A9tranger</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Amériques</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Mexique</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Carré militaire du cimetière français de Puebla: ~3000 soldats français et mexicains</t>
         </is>
       </c>
     </row>
